--- a/Supplementary_Fig_3.xlsx
+++ b/Supplementary_Fig_3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fzj\Documents\Backup Papers\EAAT2 variants II\eBiomedicine\Raw data\Currents_chloride_based_solutions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fzj\Documents\Backup Papers\EAAT2 variants II\eBiomedicine\Raw data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="54">
   <si>
     <t>24_08_20_Z2</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>(A)</t>
+  </si>
+  <si>
+    <t>partially taken from: Kovermann et al ., 2020 -&gt;</t>
   </si>
 </sst>
 </file>
@@ -246,7 +249,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,6 +274,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="17">
     <border>
@@ -466,7 +475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -533,6 +542,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -816,7 +827,7 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -832,9 +843,11 @@
       <c r="B1" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="40" t="s">
         <v>49</v>
       </c>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -987,43 +1000,43 @@
         <v>25</v>
       </c>
       <c r="D6" s="11">
-        <f>D4/D2*1000000000000</f>
+        <f t="shared" ref="D6:M6" si="0">D4/D2*1000000000000</f>
         <v>-143.36186046511628</v>
       </c>
       <c r="E6" s="11">
-        <f>E4/E2*1000000000000</f>
+        <f t="shared" si="0"/>
         <v>-337.11777777777775</v>
       </c>
       <c r="F6" s="11">
-        <f>F4/F2*1000000000000</f>
+        <f t="shared" si="0"/>
         <v>-127.98673469387754</v>
       </c>
       <c r="G6" s="11">
-        <f>G4/G2*1000000000000</f>
+        <f t="shared" si="0"/>
         <v>-115.49078014184398</v>
       </c>
       <c r="H6" s="11">
-        <f>H4/H2*1000000000000</f>
+        <f t="shared" si="0"/>
         <v>-151.08266666666665</v>
       </c>
       <c r="I6" s="11">
-        <f>I4/I2*1000000000000</f>
+        <f t="shared" si="0"/>
         <v>-229.00247524752479</v>
       </c>
       <c r="J6" s="11">
-        <f>J4/J2*1000000000000</f>
+        <f t="shared" si="0"/>
         <v>-382.07261146496819</v>
       </c>
       <c r="K6" s="11">
-        <f>K4/K2*1000000000000</f>
+        <f t="shared" si="0"/>
         <v>-423.51176470588229</v>
       </c>
       <c r="L6" s="11">
-        <f>L4/L2*1000000000000</f>
+        <f t="shared" si="0"/>
         <v>-183.74649999999997</v>
       </c>
       <c r="M6" s="11">
-        <f>M4/M2*1000000000000</f>
+        <f t="shared" si="0"/>
         <v>-380.59490445859871</v>
       </c>
       <c r="O6" s="22">
@@ -1051,11 +1064,23 @@
       <c r="B9" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="38" t="s">
-        <v>49</v>
-      </c>
+      <c r="C9" s="38"/>
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
+      <c r="I9" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="41"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
@@ -1313,75 +1338,75 @@
         <v>-13.01536231884058</v>
       </c>
       <c r="C15" s="18">
-        <f t="shared" ref="C15:T15" si="0">C13/C11*1000000000000</f>
+        <f t="shared" ref="C15:T15" si="1">C13/C11*1000000000000</f>
         <v>-18.77655786350148</v>
       </c>
       <c r="D15" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-24.822128851540615</v>
       </c>
       <c r="E15" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-30.786231884057973</v>
       </c>
       <c r="F15" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-12.203508771929824</v>
       </c>
       <c r="G15" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-8.9713927227101635</v>
       </c>
       <c r="H15" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-25.456105610561057</v>
       </c>
       <c r="I15" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-22.731234595889045</v>
       </c>
       <c r="J15" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-16.084886488023663</v>
       </c>
       <c r="K15" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-28.616094903631481</v>
       </c>
       <c r="L15" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-28.319736534440981</v>
       </c>
       <c r="M15" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-24.831385528240915</v>
       </c>
       <c r="N15" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-15.542067455069326</v>
       </c>
       <c r="O15" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-20.567035998328219</v>
       </c>
       <c r="P15" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-23.366888308057451</v>
       </c>
       <c r="Q15" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-10.598011505909456</v>
       </c>
       <c r="R15" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-26.883327120072611</v>
       </c>
       <c r="S15" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-13.844705713857477</v>
       </c>
       <c r="T15" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-25.235881884562982</v>
       </c>
       <c r="V15" s="27">
@@ -1558,43 +1583,43 @@
         <v>-373345935727788.31</v>
       </c>
       <c r="C23" s="12">
-        <f t="shared" ref="C23:L23" si="1">C21/C19*1000000000000</f>
+        <f t="shared" ref="C23:L23" si="2">C21/C19*1000000000000</f>
         <v>-28875379939209.73</v>
       </c>
       <c r="D23" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-230192719486081.38</v>
       </c>
       <c r="E23" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-130360205831903.95</v>
       </c>
       <c r="F23" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-224719101123595.53</v>
       </c>
       <c r="G23" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-291109362706530.25</v>
       </c>
       <c r="H23" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-468750000000000</v>
       </c>
       <c r="I23" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-97447795823665.891</v>
       </c>
       <c r="J23" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-257787325456498.38</v>
       </c>
       <c r="K23" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-289034564958283.63</v>
       </c>
       <c r="L23" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-118129218900675.03</v>
       </c>
       <c r="N23" s="27">
